--- a/data/dummy_base_embarques.xlsx
+++ b/data/dummy_base_embarques.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae2cfb9f301c3ffe/Documentos/Coding/OCHO_FUEGOS/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_7043A70B9230921FD2FE31D2F8F2D3C24453A412" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE1BE378-F702-43AA-8639-07131E72EDA3}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3855" yWindow="7245" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -52,8 +58,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,13 +122,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -160,7 +174,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -194,6 +208,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -228,9 +243,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -403,14 +419,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -444,7 +469,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -461,7 +486,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -478,7 +503,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -495,7 +520,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>

--- a/data/dummy_base_embarques.xlsx
+++ b/data/dummy_base_embarques.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae2cfb9f301c3ffe/Documentos/Coding/OCHO_FUEGOS/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_7043A70B9230921FD2FE31D2F8F2D3C24453A412" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE1BE378-F702-43AA-8639-07131E72EDA3}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_7043A70B9230921FD2FE31D2F8F2D3C24453A412" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{749D0DB2-AAB0-44E9-8AB1-2566D88C4FC0}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="7245" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,41 +25,41 @@
     <t>PalletRowId</t>
   </si>
   <si>
+    <t>CaliberName</t>
+  </si>
+  <si>
+    <t>PackageNetWeight</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Cliente1</t>
+  </si>
+  <si>
+    <t>Cliente2</t>
+  </si>
+  <si>
+    <t>Cliente3</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>XLD</t>
+  </si>
+  <si>
+    <t>XLDD</t>
+  </si>
+  <si>
     <t>ReceiverName</t>
-  </si>
-  <si>
-    <t>CaliberName</t>
-  </si>
-  <si>
-    <t>PackageNetWeight</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Cliente1</t>
-  </si>
-  <si>
-    <t>Cliente2</t>
-  </si>
-  <si>
-    <t>Cliente3</t>
-  </si>
-  <si>
-    <t>XL</t>
-  </si>
-  <si>
-    <t>XLD</t>
-  </si>
-  <si>
-    <t>XLDD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +69,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -111,11 +119,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,16 +449,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -457,10 +466,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>2.5</v>
@@ -474,10 +483,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>2.5</v>
@@ -491,10 +500,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -508,10 +517,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -525,10 +534,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -536,6 +545,9 @@
       <c r="E6">
         <v>100</v>
       </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
